--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -983,7 +983,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1318,6 +1318,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -1326,7 +1327,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C28"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1554,6 +1555,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -1561,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -479,6 +479,14 @@
   </si>
   <si>
     <t>DateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProfessionSort</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -980,10 +988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1132,10 +1140,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1145,36 +1153,36 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1184,10 +1192,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1196,11 +1204,11 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>78</v>
+      <c r="A16" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1210,10 +1218,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1223,36 +1231,36 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>81</v>
+      <c r="A19" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -1262,10 +1270,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -1274,46 +1282,59 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>84</v>
+      <c r="A22" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>85</v>
+      <c r="A23" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1563,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
     <sheet name="项目表(Project)" sheetId="2" r:id="rId2"/>
     <sheet name="人员表(Person)" sheetId="4" r:id="rId3"/>
-    <sheet name="字典表(Dicts)" sheetId="5" r:id="rId4"/>
+    <sheet name="经费表(Moneys)" sheetId="5" r:id="rId4"/>
+    <sheet name="专业类别(Professions)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="130">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -189,14 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>人员表ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>字段名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -205,43 +198,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>附加数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictTag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar(700)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>父节点ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentDictID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(1000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -486,7 +443,98 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <t>英文名</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>合同书</t>
+  </si>
+  <si>
+    <t>建议书</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>ProfessionID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型排序</t>
+  </si>
+  <si>
+    <t>类型类别</t>
+  </si>
+  <si>
+    <t>类型名称</t>
+  </si>
+  <si>
+    <t>ProfessionNum</t>
+  </si>
+  <si>
+    <t>ProfessionCategory</t>
+  </si>
+  <si>
+    <t>ProfessionName</t>
+  </si>
+  <si>
+    <t>nvarchar(1000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否专项项目</t>
+  </si>
+  <si>
+    <t>专业类别内排序号</t>
+  </si>
+  <si>
     <t>ProfessionSort</t>
+  </si>
+  <si>
+    <t>IsPrivateProject</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入时间</t>
+  </si>
+  <si>
+    <t>ImportTime</t>
+  </si>
+  <si>
+    <t>DateTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -882,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -935,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -948,7 +996,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -961,7 +1009,7 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -978,6 +1026,19 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -988,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1049,88 +1110,88 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -1140,23 +1201,23 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
         <v>112</v>
       </c>
-      <c r="B11" t="s">
-        <v>113</v>
-      </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1166,23 +1227,23 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1192,10 +1253,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1205,10 +1266,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1218,10 +1279,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1231,10 +1292,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1244,23 +1305,23 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -1270,10 +1331,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -1283,10 +1344,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -1296,45 +1357,68 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1348,7 +1432,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1445,10 +1529,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1471,20 +1555,20 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -1497,7 +1581,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -1582,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1619,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1658,78 +1742,119 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="130">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1669,7 +1669,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1772,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1819,42 +1819,68 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>120</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -1669,7 +1669,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1775,7 +1775,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="人员表(Person)" sheetId="4" r:id="rId3"/>
     <sheet name="经费表(Moneys)" sheetId="5" r:id="rId4"/>
     <sheet name="专业类别(Professions)" sheetId="6" r:id="rId5"/>
+    <sheet name="所属单位(LocalUnit)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -535,6 +536,40 @@
   </si>
   <si>
     <t>DateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目审核状态</t>
+  </si>
+  <si>
+    <t>项目状态原因</t>
+  </si>
+  <si>
+    <t>ProjectCheckState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectStateReason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalUnitID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalUnitName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1049,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1419,6 +1454,32 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1774,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1887,4 +1948,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="143">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -570,6 +570,22 @@
   </si>
   <si>
     <t>LocalUnitName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一次的专业类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastProfessionName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只在军委端使用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1084,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1095,6 +1111,7 @@
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.25" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1249,49 +1266,52 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1301,10 +1321,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1313,11 +1333,11 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>67</v>
+      <c r="A17" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1327,10 +1347,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1340,36 +1360,36 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>70</v>
+      <c r="A20" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -1379,10 +1399,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -1391,95 +1411,108 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>73</v>
+      <c r="A23" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>74</v>
+      <c r="A24" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>121</v>
+      <c r="A26" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1954,7 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="146">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -586,6 +586,18 @@
   </si>
   <si>
     <t>只在军委端使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一次的专业类别内序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastProfessionSort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1100,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1282,49 +1294,52 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1334,10 +1349,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1346,11 +1361,11 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>67</v>
+      <c r="A18" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1360,10 +1375,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1373,36 +1388,36 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>70</v>
+      <c r="A21" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -1412,10 +1427,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -1424,95 +1439,108 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>73</v>
+      <c r="A24" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>74</v>
+      <c r="A25" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>121</v>
+      <c r="A27" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="143">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -586,18 +586,6 @@
   </si>
   <si>
     <t>只在军委端使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一次的专业类别内序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastProfessionSort</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1112,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1294,52 +1282,49 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1349,10 +1334,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1361,11 +1346,11 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>66</v>
+      <c r="A18" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1375,10 +1360,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1388,36 +1373,36 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>69</v>
+      <c r="A21" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -1427,10 +1412,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -1439,108 +1424,95 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>72</v>
+      <c r="A24" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>73</v>
+      <c r="A25" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>75</v>
+      <c r="A27" t="s">
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="145">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -586,6 +586,14 @@
   </si>
   <si>
     <t>只在军委端使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAcceptModify</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1866,14 +1874,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1975,6 +1984,19 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="147">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -594,6 +594,14 @@
   </si>
   <si>
     <t>IsAcceptModify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩包路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZipPath</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -989,14 +997,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1098,6 +1107,19 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1876,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
